--- a/table/corr/env_corr.xlsx
+++ b/table/corr/env_corr.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,332 +361,439 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Depth</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>DRM</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Salinity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SigmaTheta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Density</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oxygen</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fluorescence</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>D50</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TOC</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>delta13C</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Chla</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Porosity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>-0.7431424610436278</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.7086202194859672</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.7399529870849626</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.8037949706388925</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.6768828314114166</v>
       </c>
     </row>
     <row r="3">
-      <c r="J3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
+      </c>
+      <c r="K3">
         <v>0.6238342328839213</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>-0.7431424610436278</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.953084702267286</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-0.9974029237633777</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.9932341685172119</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.8733427140942474</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Salinity</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>0.7086202194859672</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.953084702267286</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.9722813898486962</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.965310678377262</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.8281351455128425</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-0.6237568570677257</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-0.6140381058841493</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SigmaTheta</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>0.7399529870849626</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.9974029237633777</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.9722813898486962</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.9948883397039098</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.8718748286383902</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>0.8037949706388925</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.9932341685172119</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.965310678377262</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.9948883397039098</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.8701171461471435</v>
       </c>
     </row>
     <row r="8">
-      <c r="K8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Oxygen</t>
+        </is>
+      </c>
+      <c r="L8">
         <v>-0.6026910566010424</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-0.8680178312983961</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.7745429287963966</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fluorescence</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>0.6768828314114166</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.8733427140942474</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.8281351455128425</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.8718748286383902</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.8701171461471435</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="C11">
         <v>0.6238342328839213</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.690775668347104</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.7506613474432097</v>
       </c>
     </row>
     <row r="12">
-      <c r="G12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Silt</t>
+        </is>
+      </c>
+      <c r="H12">
         <v>-0.6026910566010424</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-0.9756001260703553</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.9194743912573761</v>
       </c>
     </row>
     <row r="13">
-      <c r="J13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="K13">
         <v>-0.690775668347104</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-0.9756001260703553</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-0.9682397373122026</v>
       </c>
     </row>
     <row r="14">
-      <c r="J14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
+      </c>
+      <c r="K14">
         <v>0.7506613474432097</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.9194743912573761</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.9682397373122026</v>
       </c>
     </row>
     <row r="15">
-      <c r="O15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TOC</t>
+        </is>
+      </c>
+      <c r="P15">
         <v>0.6828118456804194</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.6239707785104226</v>
       </c>
     </row>
     <row r="16">
-      <c r="N16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="O16">
         <v>0.6828118456804194</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.7190851860975999</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.7280859093962347</v>
       </c>
     </row>
     <row r="17">
-      <c r="N17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="O17">
         <v>0.6239707785104226</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>delta13C</t>
+        </is>
+      </c>
+      <c r="H18">
         <v>-0.8680178312983961</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-0.7582392480045691</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="H19">
         <v>0.7745429287963966</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-0.7582392480045691</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="E20">
         <v>-0.6237568570677257</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.7190851860975999</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.9987399579365272</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Porosity</t>
+        </is>
+      </c>
+      <c r="E21">
         <v>-0.6140381058841493</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.7280859093962347</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.9987399579365272</v>
       </c>
     </row>
@@ -697,7 +804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,332 +813,439 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Depth</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>DRM</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Salinity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SigmaTheta</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Density</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oxygen</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fluorescence</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Transmission</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Clay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>D50</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TOC</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>CN</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>delta13C</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Chla</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Porosity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="C2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Depth</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>-0.74</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.71</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.74</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.8</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.6800000000000001</v>
       </c>
     </row>
     <row r="3">
-      <c r="J3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DRM</t>
+        </is>
+      </c>
+      <c r="K3">
         <v>0.62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>-0.74</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-0.95</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-0.99</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-0.87</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Salinity</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>0.71</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-0.95</v>
-      </c>
-      <c r="E5">
-        <v>0.97</v>
       </c>
       <c r="F5">
         <v>0.97</v>
       </c>
-      <c r="I5">
+      <c r="G5">
+        <v>0.97</v>
+      </c>
+      <c r="J5">
         <v>0.83</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-0.62</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-0.61</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SigmaTheta</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>0.74</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.97</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.99</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.87</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>0.8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.99</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.97</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.99</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.87</v>
       </c>
     </row>
     <row r="8">
-      <c r="K8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Oxygen</t>
+        </is>
+      </c>
+      <c r="L8">
         <v>-0.6</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-0.87</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.77</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fluorescence</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Transmission</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>0.6800000000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.87</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.83</v>
-      </c>
-      <c r="E10">
-        <v>0.87</v>
       </c>
       <c r="F10">
         <v>0.87</v>
       </c>
+      <c r="G10">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sand</t>
+        </is>
+      </c>
+      <c r="C11">
         <v>0.62</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-0.69</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.75</v>
       </c>
     </row>
     <row r="12">
-      <c r="G12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Silt</t>
+        </is>
+      </c>
+      <c r="H12">
         <v>-0.6</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-0.98</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.92</v>
       </c>
     </row>
     <row r="13">
-      <c r="J13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Clay</t>
+        </is>
+      </c>
+      <c r="K13">
         <v>-0.69</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-0.98</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-0.97</v>
       </c>
     </row>
     <row r="14">
-      <c r="J14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>D50</t>
+        </is>
+      </c>
+      <c r="K14">
         <v>0.75</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>0.92</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-0.97</v>
       </c>
     </row>
     <row r="15">
-      <c r="O15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TOC</t>
+        </is>
+      </c>
+      <c r="P15">
         <v>0.6800000000000001</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.62</v>
       </c>
     </row>
     <row r="16">
-      <c r="N16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="O16">
         <v>0.6800000000000001</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>0.72</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.73</v>
       </c>
     </row>
     <row r="17">
-      <c r="N17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="O17">
         <v>0.62</v>
       </c>
     </row>
     <row r="18">
-      <c r="G18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>delta13C</t>
+        </is>
+      </c>
+      <c r="H18">
         <v>-0.87</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-0.76</v>
       </c>
     </row>
     <row r="19">
-      <c r="G19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chla</t>
+        </is>
+      </c>
+      <c r="H19">
         <v>0.77</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-0.76</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="E20">
         <v>-0.62</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.72</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Porosity</t>
+        </is>
+      </c>
+      <c r="E21">
         <v>-0.61</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.73</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1</v>
       </c>
     </row>

--- a/table/corr/env_corr.xlsx
+++ b/table/corr/env_corr.xlsx
@@ -484,7 +484,7 @@
         <v>0.8037949706388925</v>
       </c>
       <c r="J2">
-        <v>0.6768828314114166</v>
+        <v>0.6768828314114195</v>
       </c>
     </row>
     <row r="3">
@@ -510,13 +510,13 @@
         <v>-0.953084702267286</v>
       </c>
       <c r="F4">
-        <v>-0.9974029237633777</v>
+        <v>-0.9974029237634601</v>
       </c>
       <c r="G4">
         <v>-0.9932341685172119</v>
       </c>
       <c r="J4">
-        <v>-0.8733427140942474</v>
+        <v>-0.8733427140942512</v>
       </c>
     </row>
     <row r="5">
@@ -538,13 +538,13 @@
         <v>0.965310678377262</v>
       </c>
       <c r="J5">
-        <v>0.8281351455128425</v>
+        <v>0.8281351455128461</v>
       </c>
       <c r="T5">
-        <v>-0.6237568570677257</v>
+        <v>-0.6237568570671886</v>
       </c>
       <c r="U5">
-        <v>-0.6140381058841493</v>
+        <v>-0.6140381058845711</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         <v>0.7399529870849626</v>
       </c>
       <c r="D6">
-        <v>-0.9974029237633777</v>
+        <v>-0.9974029237634601</v>
       </c>
       <c r="E6">
         <v>0.9722813898486962</v>
@@ -566,7 +566,7 @@
         <v>0.9948883397039098</v>
       </c>
       <c r="J6">
-        <v>0.8718748286383902</v>
+        <v>0.8718748286383942</v>
       </c>
     </row>
     <row r="7">
@@ -588,7 +588,7 @@
         <v>0.9948883397039098</v>
       </c>
       <c r="J7">
-        <v>0.8701171461471435</v>
+        <v>0.8701171461454388</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +601,10 @@
         <v>-0.6026910566010424</v>
       </c>
       <c r="R8">
-        <v>-0.8680178312983961</v>
+        <v>-0.8680178312983327</v>
       </c>
       <c r="S8">
-        <v>0.7745429287963966</v>
+        <v>0.7745429287963901</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.6768828314114166</v>
+        <v>0.6768828314114195</v>
       </c>
       <c r="D10">
-        <v>-0.8733427140942474</v>
+        <v>-0.8733427140942512</v>
       </c>
       <c r="E10">
-        <v>0.8281351455128425</v>
+        <v>0.8281351455128461</v>
       </c>
       <c r="F10">
-        <v>0.8718748286383902</v>
+        <v>0.8718748286383942</v>
       </c>
       <c r="G10">
-        <v>0.8701171461471435</v>
+        <v>0.8701171461454388</v>
       </c>
     </row>
     <row r="11">
@@ -646,7 +646,7 @@
         <v>0.6238342328839213</v>
       </c>
       <c r="M11">
-        <v>-0.690775668347104</v>
+        <v>-0.6907756683471035</v>
       </c>
       <c r="N11">
         <v>0.7506613474432097</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="K13">
-        <v>-0.690775668347104</v>
+        <v>-0.6907756683471035</v>
       </c>
       <c r="L13">
         <v>-0.9756001260703553</v>
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="P15">
-        <v>0.6828118456804194</v>
+        <v>0.6828118456804452</v>
       </c>
       <c r="Q15">
-        <v>0.6239707785104226</v>
+        <v>0.623970778510432</v>
       </c>
     </row>
     <row r="16">
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="O16">
-        <v>0.6828118456804194</v>
+        <v>0.6828118456804452</v>
       </c>
       <c r="T16">
-        <v>0.7190851860975999</v>
+        <v>0.7190851860976093</v>
       </c>
       <c r="U16">
-        <v>0.7280859093962347</v>
+        <v>0.7280859093962294</v>
       </c>
     </row>
     <row r="17">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="O17">
-        <v>0.6239707785104226</v>
+        <v>0.623970778510432</v>
       </c>
     </row>
     <row r="18">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="H18">
-        <v>-0.8680178312983961</v>
+        <v>-0.8680178312983327</v>
       </c>
       <c r="S18">
-        <v>-0.7582392480045691</v>
+        <v>-0.758239248004362</v>
       </c>
     </row>
     <row r="19">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="H19">
-        <v>0.7745429287963966</v>
+        <v>0.7745429287963901</v>
       </c>
       <c r="R19">
-        <v>-0.7582392480045691</v>
+        <v>-0.758239248004362</v>
       </c>
     </row>
     <row r="20">
@@ -772,13 +772,13 @@
         </is>
       </c>
       <c r="E20">
-        <v>-0.6237568570677257</v>
+        <v>-0.6237568570671886</v>
       </c>
       <c r="P20">
-        <v>0.7190851860975999</v>
+        <v>0.7190851860976093</v>
       </c>
       <c r="U20">
-        <v>0.9987399579365272</v>
+        <v>0.9987399579365067</v>
       </c>
     </row>
     <row r="21">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="E21">
-        <v>-0.6140381058841493</v>
+        <v>-0.6140381058845711</v>
       </c>
       <c r="P21">
-        <v>0.7280859093962347</v>
+        <v>0.7280859093962294</v>
       </c>
       <c r="T21">
-        <v>0.9987399579365272</v>
+        <v>0.9987399579365067</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +936,7 @@
         <v>0.8</v>
       </c>
       <c r="J2">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="D10">
         <v>-0.87</v>
@@ -1098,7 +1098,7 @@
         <v>0.62</v>
       </c>
       <c r="M11">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="N11">
         <v>0.75</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="K13">
-        <v>-0.69</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L13">
         <v>-0.98</v>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="P15">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Q15">
         <v>0.62</v>
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="O16">
-        <v>0.6800000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="T16">
         <v>0.72</v>
